--- a/loaded_influencer_data/skincare_by_ridah/skincare_by_ridah_video.xlsx
+++ b/loaded_influencer_data/skincare_by_ridah/skincare_by_ridah_video.xlsx
@@ -512,19 +512,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113600</v>
+        <v>113900</v>
       </c>
       <c r="C2" t="n">
-        <v>7290</v>
+        <v>7296</v>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6.558098591549295</v>
+        <v>6.545215100965759</v>
       </c>
       <c r="I2" t="n">
-        <v>6.41725352112676</v>
+        <v>6.405618964003512</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1408450704225352</v>
+        <v>0.1395961369622476</v>
       </c>
       <c r="L2" t="n">
-        <v>1.492077464788732</v>
+        <v>1.487269534679543</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         <v>3300000</v>
       </c>
       <c r="C3" t="n">
-        <v>339200</v>
+        <v>339300</v>
       </c>
       <c r="D3" t="n">
         <v>1282</v>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.31763636363636</v>
+        <v>10.32066666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>10.27878787878788</v>
+        <v>10.28181818181818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -612,944 +612,1202 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7489425364037504278</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C4" t="n">
+        <v>131</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>#anua #collagenmask #anuacollagenmask #3hourglassmask #koreanskincare #nighttimeskincare #skincareroutine</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8.183401044689495</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.603017991874637</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5803830528148578</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.276842716192687</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7489152566719204630</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>I love them🫶🏼these are perfect for inflamed skin !!
+#kbeauty #koreanskincare #eqqualberry #heveblue #axisy</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6.570048309178745</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.603864734299517</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.966183574879227</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7729468599033816</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7488783822130040086</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1154</v>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>I love them🫶🏼these are perfect for inflamed skin !!
+#kbeauty #koreanskincare #eqqualberry #heveblue #axisy</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5.892547660311958</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.025996533795494</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8665511265164645</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6932409012131715</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7488039506004757782</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>I love them all my favorites🫶🏼
+Codes🩷 YesStyle RIRI1818
+Stylevana INF10RIRI
+#kbeauty #skincare #skintok</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7835051546391752</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6082474226804124</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1752577319587629</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2061855670103093</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/video/7487682282296462614</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>779</v>
+      </c>
+      <c r="C8" t="n">
+        <v>561</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>150</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>I love them all my favorites🫶🏼
+Codes🩷 YesStyle RIRI1818
+Stylevana INF10RIRI
+#kbeauty #skincare #skintok</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>74.96790757381258</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72.01540436456996</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.952503209242619</v>
+      </c>
+      <c r="L8" t="n">
+        <v>19.25545571245186</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7486915570365926678</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>581</v>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="B9" t="n">
+        <v>1310</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>If glass skin has a sound !!
+#medicube #glassskin
+#kbeauty #asmr #glass #collagenwrappingmask #medicube</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2.977099236641221</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.213740458015267</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.7633587786259541</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7486183262411410710</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>How to lift the double chin?
 #numbuzin #kbeauty #skintok #skincare #skincareroutine #liftingmask #liftingband</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>12.22030981067126</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.056798623063683</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.163511187607573</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.376936316695353</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H10" t="n">
+        <v>0.8538461538461538</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3307692307692308</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7486183262411410710</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3955</v>
-      </c>
-      <c r="C5" t="n">
-        <v>188</v>
-      </c>
-      <c r="D5" t="n">
-        <v>37</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>70</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>I’ve tried so many sheetmasks here are my own opinion on viral sheet masks!!
-YesStyle RIRI1818
-Stylevana INF10RIRI</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5.689001264222504</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.753476611883692</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.9355246523388117</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.769911504424779</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7485819308719885590</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B11" t="n">
         <v>924</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C11" t="n">
         <v>46</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D11" t="n">
         <v>36</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>7</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>TXA spicule serum that fades hyperpigmentation in 7 days!! 💕
 Gifted by @APRILSKIN USA
 #APRILSKIN</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H11" t="n">
         <v>8.874458874458876</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I11" t="n">
         <v>4.978354978354979</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.896103896103896</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L11" t="n">
         <v>0.7575757575757576</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7485736200070794519</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>804</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C12" t="n">
         <v>33</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D12" t="n">
         <v>24</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>4</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>THIS MASK SHOCKED ME OUT!!!
 1 HOUR!! AND FRAGRANCE FREE!! SENSITIVE SKIN APPROVED YES!!!
 #glowup</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H12" t="n">
         <v>7.08955223880597</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I12" t="n">
         <v>4.104477611940299</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.985074626865671</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L12" t="n">
         <v>0.4975124378109453</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7484910976404294934</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B13" t="n">
         <v>902</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C13" t="n">
         <v>45</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D13" t="n">
         <v>22</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Red booster Reedle shot for inflamed skin! 🩸
 #Dragonbloodserum #Redserum #Reedleshot</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H13" t="n">
         <v>7.427937915742794</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I13" t="n">
         <v>4.988913525498892</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.439024390243902</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L13" t="n">
         <v>0.8869179600886918</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7484618911057579286</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>747</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C14" t="n">
         <v>51</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D14" t="n">
         <v>52</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>5</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>POV: You wanna see if a morning shed is worth the hype! ✨☀️
 This mask has become my new favorite for my morning routine.</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H14" t="n">
         <v>13.78848728246319</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I14" t="n">
         <v>6.827309236947792</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>6.961178045515395</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L14" t="n">
         <v>0.6693440428380187</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/photo/7483970483512184086</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B15" t="n">
         <v>1424</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C15" t="n">
         <v>65</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D15" t="n">
         <v>17</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>18</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Here are my favorites helped to minimize my large pores.🥹🤍
 #Eqqualberry #Anua #Medicube #Roundlab</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H15" t="n">
         <v>5.758426966292135</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I15" t="n">
         <v>4.564606741573034</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.193820224719101</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L15" t="n">
         <v>1.264044943820225</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7483603717762141462</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B16" t="n">
         <v>1419</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C16" t="n">
         <v>58</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D16" t="n">
         <v>43</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>5</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>On My Birthday🎂 I became VT Ambassador!!🎉🌸💕✨
 #VTcosmetics #kbeauty #koreanskincare</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H16" t="n">
         <v>7.11768851303735</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I16" t="n">
         <v>4.08738548273432</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.03030303030303</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L16" t="n">
         <v>0.3523608174770966</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7482428332458413334</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B17" t="n">
         <v>1018</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C17" t="n">
         <v>39</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D17" t="n">
         <v>33</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>7</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Saying Goodbye To Clogged Pores in 3 minutes🩵🫧!
 🩵What I like about Zero deep cleansing oil it cleanses deeply my pores but it takes more time since I have sensitive skin.</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H17" t="n">
         <v>7.072691552062868</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I17" t="n">
         <v>3.831041257367387</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.241650294695481</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L17" t="n">
         <v>0.68762278978389</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7481746066984029462</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B18" t="n">
         <v>1063</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C18" t="n">
         <v>39</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D18" t="n">
         <v>39</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>6</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Did you know that we need to brush our pores, not just our teeth?
 🥭🧡Mango sorbet like Cleansing balm 🍧🥕 Unclogs your pores🫧!!</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H18" t="n">
         <v>7.337723424270931</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I18" t="n">
         <v>3.668861712135465</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.668861712135465</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L18" t="n">
         <v>0.5644402634054563</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/video/7481631141108206870</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1201</v>
-      </c>
-      <c r="C14" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" t="n">
-        <v>20</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Clean in one step!🫧 Without double cleanse🩷 This all in one cleansing balm was my first ever kbeauty product when I started doing Korean skincare 🥺🩷</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4.829308909242298</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.164029975020816</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.665278934221482</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.3330557868442964</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7481364533085277462</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1419</v>
-      </c>
-      <c r="C15" t="n">
-        <v>81</v>
-      </c>
-      <c r="D15" t="n">
-        <v>28</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Sharing my favorites!! Which is right for your skin!! I love them for strengthen my skin barrier, anti aging fading acne dark spots 🤍</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7.681465821000705</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.708245243128964</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.973220577871741</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.691331923890063</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/video/7480538404476685590</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1103</v>
-      </c>
-      <c r="C16" t="n">
-        <v>63</v>
-      </c>
-      <c r="D16" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>My lips are so much hydrated Thanks to @Abib Cosmetics ❤️ 🫧🎀 PDRN Collagen lip mask Glazed jelly🎀🫧</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9.338168631006347</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.711695376246601</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.626473254759746</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.8159564823209429</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/video/7480219749071244566</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1227</v>
-      </c>
-      <c r="C17" t="n">
-        <v>32</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Do not miss 🩷Glowland POP UP event🩷!! From @Medicube Global @medicube</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3.178484107579462</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.6079869600652</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.5704971475142625</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.2444987775061125</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7479516592708029718</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>12200</v>
-      </c>
-      <c r="C18" t="n">
-        <v>705</v>
-      </c>
-      <c r="D18" t="n">
-        <v>44</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>229</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>(Non-Sponsored) Loving these toners for hydrating natural exfoliation and milky toners for repairing my skin barrier sharing my own experience on these toners !</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6.139344262295082</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.778688524590164</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.360655737704918</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.877049180327869</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/video/7481631141108206870</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C19" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Clean in one step!🫧 Without double cleanse🩷 This all in one cleansing balm was my first ever kbeauty product when I started doing Korean skincare 🥺🩷</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4.829308909242298</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.164029975020816</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.665278934221482</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3330557868442964</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7481364533085277462</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1419</v>
+      </c>
+      <c r="C20" t="n">
+        <v>81</v>
+      </c>
+      <c r="D20" t="n">
+        <v>28</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>24</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sharing my favorites!! Which is right for your skin!! I love them for strengthen my skin barrier, anti aging fading acne dark spots 🤍</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7.681465821000705</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.708245243128964</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.973220577871741</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.691331923890063</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/video/7480538404476685590</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1103</v>
+      </c>
+      <c r="C21" t="n">
+        <v>63</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>My lips are so much hydrated Thanks to @Abib Cosmetics ❤️ 🫧🎀 PDRN Collagen lip mask Glazed jelly🎀🫧</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9.338168631006347</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.711695376246601</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.626473254759746</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8159564823209429</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/video/7480219749071244566</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C22" t="n">
+        <v>32</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Do not miss 🩷Glowland POP UP event🩷!! From @Medicube Global @medicube</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3.178484107579462</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.6079869600652</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5704971475142625</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.2444987775061125</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7479516592708029718</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>12200</v>
+      </c>
+      <c r="C23" t="n">
+        <v>705</v>
+      </c>
+      <c r="D23" t="n">
+        <v>44</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>229</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>(Non-Sponsored) Loving these toners for hydrating natural exfoliation and milky toners for repairing my skin barrier sharing my own experience on these toners !</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6.139344262295082</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.778688524590164</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.360655737704918</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.877049180327869</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/photo/7478774247427476758</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B24" t="n">
         <v>76100</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C24" t="n">
         <v>3166</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D24" t="n">
         <v>93</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>1041</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>I’ve tried so many Vitamin C serum !! My honest opinion about them 🤍
 YesStyle RIRI1818
 Stylevana INF10RIRI</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H24" t="n">
         <v>4.282522996057819</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I24" t="n">
         <v>4.160315374507227</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.1222076215505913</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L24" t="n">
         <v>1.367936925098554</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7478068241827482902</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B25" t="n">
         <v>1359</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C25" t="n">
         <v>47</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D25" t="n">
         <v>22</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>My honest review on the viral Rice mask powder of Anua
 My skin is still in healing process ❤️‍🩹
 #damagedskinbarrier</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H25" t="n">
         <v>5.077262693156733</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I25" t="n">
         <v>3.458425312729949</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1.618837380426785</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L25" t="n">
         <v>0.1471670345842531</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7477667405280365846</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>1046</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>37</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>28</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>8</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Tired of open large pores 😫!!!
 What I like about this Pore Lifting ampoule💚
 It’s very lightweight, non sticky absorbs well on the skin.</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>6.21414913957935</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I26" t="n">
         <v>3.537284894837476</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.676864244741874</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L26" t="n">
         <v>0.7648183556405354</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7477569529850137878</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B27" t="n">
         <v>826</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C27" t="n">
         <v>28</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D27" t="n">
         <v>21</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>4</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Calming routine with Cosrx Ft.LEWKIN
 shop at Lewkin with my code SKINCAREBYRIDAH
@@ -1557,310 +1815,310 @@
 #Lewkin</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H27" t="n">
         <v>5.932203389830509</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I27" t="n">
         <v>3.389830508474576</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>2.542372881355933</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L27" t="n">
         <v>0.4842615012106538</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7476842451152473366</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B28" t="n">
         <v>881</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C28" t="n">
         <v>30</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D28" t="n">
         <v>29</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>2</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Unbox with me LEWKIN kbeauty box 🩷🌸
 Shop with my code SKINCAREBYRIDAH at @Lewkin 🩷✨
 #Lewkin</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H28" t="n">
         <v>6.696935300794552</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I28" t="n">
         <v>3.40522133938706</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.291713961407492</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L28" t="n">
         <v>0.2270147559591373</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7476461377113181462</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B29" t="n">
         <v>872</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C29" t="n">
         <v>40</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D29" t="n">
         <v>30</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>6</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Unbox with me LEWKIN kbeauty box 🩷🌸
 Shop with my code SKINCAREBYRIDAH at @Lewkin 🩷✨
 #Lewkin</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H29" t="n">
         <v>8.027522935779817</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I29" t="n">
         <v>4.587155963302752</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.440366972477064</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L29" t="n">
         <v>0.6880733944954129</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7476084370818845974</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B30" t="n">
         <v>14300</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C30" t="n">
         <v>128</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D30" t="n">
         <v>24</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>20</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>My most used serum for red spots / Cystic acne inflammation !
 Product mentioned Anua Azelaic Acid serum 10 + Hyaluron</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H30" t="n">
         <v>1.062937062937063</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I30" t="n">
         <v>0.8951048951048951</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.1678321678321678</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L30" t="n">
         <v>0.1398601398601399</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7475714831862074646</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B31" t="n">
         <v>10500</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C31" t="n">
         <v>70</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D31" t="n">
         <v>25</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>17</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>The power of Retinal ✨🫶🏼
 Disclaimer❗️: use a pea size amount on your entire face applied on the video is not recommended.</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H31" t="n">
         <v>0.9047619047619048</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I31" t="n">
         <v>0.6666666666666667</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L31" t="n">
         <v>0.1619047619047619</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7475435691225173270</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B32" t="n">
         <v>980</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C32" t="n">
         <v>40</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
         <v>25</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>5</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Ahhhh felt the Needles on my skin🤭💉
 YesStyle x VT cosmetics 💉✨
 Shop at YesStyle with my Reward code: RIRI1818</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H32" t="n">
         <v>6.63265306122449</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I32" t="n">
         <v>4.081632653061225</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>2.551020408163265</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L32" t="n">
         <v>0.5102040816326531</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7475088392716438806</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B33" t="n">
         <v>810</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C33" t="n">
         <v>24</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D33" t="n">
         <v>21</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>⛩️ Ultimate Hand Care:
 Find your perfect match!
@@ -1868,254 +2126,254 @@
 🩷 Muguet &amp; Lotus hand Cream soothing, Soft Non-sticky finish 🪷✨</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H33" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I33" t="n">
         <v>2.962962962962963</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>2.592592592592593</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L33" t="n">
         <v>0.2469135802469136</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/photo/7473941802454764822</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B34" t="n">
         <v>105400</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C34" t="n">
         <v>6939</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D34" t="n">
         <v>78</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>3134</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>(Non-Sponsored) These are my absolute FAVORITES I need to Restock 🥺 Calmed my skin Saved my skin in worst condition!!! 😭❤️❤️</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H34" t="n">
         <v>6.657495256166983</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I34" t="n">
         <v>6.58349146110057</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.07400379506641366</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L34" t="n">
         <v>2.973434535104365</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7473195583856020758</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B35" t="n">
         <v>5496</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C35" t="n">
         <v>210</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D35" t="n">
         <v>38</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>56</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Rating me almost Empties products🫶🏼✨
 #Celimax #Dralthea #Eqqualberry #Purito #skintok #winterskincare</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H35" t="n">
         <v>4.512372634643377</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I35" t="n">
         <v>3.820960698689956</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.6914119359534207</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L35" t="n">
         <v>1.018922852983988</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7472840565176995094</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B36" t="n">
         <v>797</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C36" t="n">
         <v>19</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D36" t="n">
         <v>12</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>2</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Feels like -13 here 😭 Ice freezing !! 🥶#winter #wintervibes #dumplings #sport #gym #gymtok #sun #viral #fyp</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H36" t="n">
         <v>3.889585947302384</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I36" t="n">
         <v>2.383939774153074</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>1.50564617314931</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L36" t="n">
         <v>0.2509410288582183</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7472461522036411670</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B37" t="n">
         <v>3764</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C37" t="n">
         <v>49</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D37" t="n">
         <v>45</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>12</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>UNBELIEVABLE !! I AM IN SHOCK SMOOTHS OUT THE SKIN WITHOUT IRRITATION 🥺🫶🏼
 @Eqqualberry</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H37" t="n">
         <v>2.497343251859724</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I37" t="n">
         <v>1.301806588735388</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>1.195536663124336</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L37" t="n">
         <v>0.3188097768331562</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7472424567420603670</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B38" t="n">
         <v>1201</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C38" t="n">
         <v>41</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D38" t="n">
         <v>16</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>4</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>GRWN tip in the morning ❤️💧✨🌲🌿🫶🏼
 My honest review
@@ -2123,52 +2381,52 @@
 🌲 This Toner is one of the best I have tried !!🫶🏼 A big hit after the viral Toner.</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H38" t="n">
         <v>4.746044962531224</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I38" t="n">
         <v>3.413821815154038</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1.332223147377186</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L38" t="n">
         <v>0.3330557868442964</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7472015305250721046</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B39" t="n">
         <v>2047</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C39" t="n">
         <v>97</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D39" t="n">
         <v>12</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>GRWN tip in the morning ❤️💧✨🌲🌿🫶🏼
 My honest review
@@ -2176,891 +2434,638 @@
 🌲 This Toner is one of the best I have tried !!🫶🏼 A big hit after the viral Toner.</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H39" t="n">
         <v>5.324865657059111</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I39" t="n">
         <v>4.738641914997557</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.5862237420615535</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L39" t="n">
         <v>0.1465559355153884</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7471717214903749910</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B40" t="n">
         <v>874</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C40" t="n">
         <v>36</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D40" t="n">
         <v>27</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>6</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>(Non Sponsored) Did the Glass skin on my Fathers skin🫶🏼✨
 #Glassskin #kbeauty #Aprilskin #Numbuzin</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H40" t="n">
         <v>7.208237986270023</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I40" t="n">
         <v>4.118993135011442</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.089244851258581</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L40" t="n">
         <v>0.6864988558352403</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7471389020732558615</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B41" t="n">
         <v>814</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C41" t="n">
         <v>43</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D41" t="n">
         <v>24</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>8</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Happy Galentines ❤️❤️ Here are my February Medicube favorites 🥰
 #medicube #medicubeambassador</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H41" t="n">
         <v>8.230958230958231</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I41" t="n">
         <v>5.282555282555283</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>2.948402948402948</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L41" t="n">
         <v>0.9828009828009828</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7471357505025608982</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B42" t="n">
         <v>718</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C42" t="n">
         <v>28</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D42" t="n">
         <v>17</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Spray more! Glow more in every moments of the day, carrying my Favorite Abib Glow Spray✨🥞 everywhere around in my bag and pickpocket🫶🏼</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H42" t="n">
         <v>6.267409470752089</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I42" t="n">
         <v>3.899721448467967</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>2.367688022284122</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L42" t="n">
         <v>0.4178272980501393</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/photo/7470971538158652694</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B43" t="n">
         <v>2043</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C43" t="n">
         <v>100</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D43" t="n">
         <v>28</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>29</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>SWIPE UP —&gt; To see for main skin concern.
 I had main skin issues of my texture skin !
 @Eqqualberry</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H43" t="n">
         <v>6.265296133137543</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I43" t="n">
         <v>4.894762604013706</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>1.370533529123837</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L43" t="n">
         <v>1.419481155163975</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7470257840167374102</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B44" t="n">
         <v>1177</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C44" t="n">
         <v>41</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D44" t="n">
         <v>24</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Take your time in oil cleansing!
 @KSECRET Store US
 #sebaceousfilaments #blackhead #porecleansing</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H44" t="n">
         <v>5.52251486830926</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I44" t="n">
         <v>3.483432455395072</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>2.039082412914189</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L44" t="n">
         <v>0.1699235344095157</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7469899122783292694</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B45" t="n">
         <v>1292</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C45" t="n">
         <v>73</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D45" t="n">
         <v>29</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>9</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Make with me Celery Juice 🥒🍏🍋‍🟩🧃
 #healthyrecipes #celery #celeryjuice #greenvegetable #fyp</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H45" t="n">
         <v>7.894736842105263</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I45" t="n">
         <v>5.65015479876161</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>2.244582043343653</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L45" t="n">
         <v>0.696594427244582</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7469853239316319510</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B46" t="n">
         <v>1296</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C46" t="n">
         <v>51</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D46" t="n">
         <v>21</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>5</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>A must have ampoule for fading my Acne scars so FAST!!
 Niacindy line is inspired by Korea’s “Cinderella Injection 👠💉✨💛</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H46" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I46" t="n">
         <v>3.935185185185185</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>1.62037037037037</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L46" t="n">
         <v>0.3858024691358025</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7469495163983891734</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B47" t="n">
         <v>1184</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C47" t="n">
         <v>36</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D47" t="n">
         <v>29</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>6</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Invisible pimple patch underneath makeup that heals acne at the same time YAY🫶🏼💛
 I love this peeling off mask and why because it heals acne from protecting from make up</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H47" t="n">
         <v>5.489864864864865</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I47" t="n">
         <v>3.040540540540541</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>2.449324324324324</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L47" t="n">
         <v>0.5067567567567568</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@skincare_by_ridah/video/7468756903137529110</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B48" t="n">
         <v>1213</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C48" t="n">
         <v>47</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D48" t="n">
         <v>10</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>7</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>SKINFOOD♥️
 🌾Rice brightening toner pad
 Improves uneven skintone pore care with glowy finish. Easy to split into two sides placing on my cheeks and forehead underchin.</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H48" t="n">
         <v>4.699093157460841</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I48" t="n">
         <v>3.874690849134378</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.8244023083264632</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L48" t="n">
         <v>0.5770816158285244</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/video/7468008120581672214</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1307</v>
-      </c>
-      <c r="C44" t="n">
-        <v>47</v>
-      </c>
-      <c r="D44" t="n">
-        <v>24</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>7</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Need to get HYDRATED 🫣💦🩵 My make up and skin never looked that smooth and deep moisturize and hydrated skin YES! 🩵 This became my long term favorite in 2025🥰</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5.432287681713849</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.596021423106351</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.836266258607498</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.5355776587605203</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7467631846583438614</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>23200</v>
-      </c>
-      <c r="C45" t="n">
-        <v>471</v>
-      </c>
-      <c r="D45" t="n">
-        <v>26</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>108</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>That’s why I kept breaking out because of these 😓 #skincare #acne #viral #koreanskincare #beauty #draltea</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2.142241379310345</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.030172413793104</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.1120689655172414</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.4655172413793103</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7467611807650303254</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>7808</v>
-      </c>
-      <c r="C46" t="n">
-        <v>625</v>
-      </c>
-      <c r="D46" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>59</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>I can’t wait any longer !! #weakheroclass1 #kdrama #fyp</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8.132684426229508</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8.004610655737705</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.1280737704918033</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.7556352459016393</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/video/7467315358462922006</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1119</v>
-      </c>
-      <c r="C47" t="n">
-        <v>27</v>
-      </c>
-      <c r="D47" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>I can’t wait any longer !! #weakheroclass1 #kdrama #fyp</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>3.306523681858802</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.412868632707775</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.8936550491510277</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.1787310098302055</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/video/7466194246538693910</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1084</v>
-      </c>
-      <c r="C48" t="n">
-        <v>49</v>
-      </c>
-      <c r="D48" t="n">
-        <v>16</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>My favorite Medicube products for a glow up 💖
-#medicube #medicubeambassador #medicubereview #kbeauty</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>5.996309963099631</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4.520295202952029</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.476014760147601</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.3690036900369004</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/video/7466131293298806038</t>
+          <t>https://www.tiktok.com/@skincare_by_ridah/video/7468008120581672214</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>677</v>
+        <v>1307</v>
       </c>
       <c r="C49" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Having dry skin and damaged skin barrier here to take care of my sensitive skin with Madeca Repair line 🩷 Try the Madeca Repair line for health glowy skin in dry winters 🥶💖</t>
+          <t>Need to get HYDRATED 🫣💦🩵 My make up and skin never looked that smooth and deep moisturize and hydrated skin YES! 🩵 This became my long term favorite in 2025🥰</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>8.419497784342688</v>
+        <v>5.432287681713849</v>
       </c>
       <c r="I49" t="n">
-        <v>5.022156573116692</v>
+        <v>3.596021423106351</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>3.397341211225998</v>
+        <v>1.836266258607498</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2954209748892171</v>
+        <v>0.5355776587605203</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-02-06</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/video/7465778129349512470</t>
+          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7467631846583438614</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1183</v>
+        <v>23200</v>
       </c>
       <c r="C50" t="n">
-        <v>27</v>
+        <v>471</v>
       </c>
       <c r="D50" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Having dry skin and damaged skin barrier here to take care of my sensitive skin with Madeca Repair line 🩷 Try the Madeca Repair line for health glowy skin in dry winters 🥶💖</t>
+          <t>That’s why I kept breaking out because of these 😓 #skincare #acne #viral #koreanskincare #beauty #draltea</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>3.803888419273035</v>
+        <v>2.142241379310345</v>
       </c>
       <c r="I50" t="n">
-        <v>2.282333051563821</v>
+        <v>2.030172413793104</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1.521555367709214</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="L50" t="n">
-        <v>0.422654268808115</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@skincare_by_ridah/video/7465422176301321495</t>
+          <t>https://www.tiktok.com/@skincare_by_ridah/photo/7467611807650303254</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>274</v>
+        <v>7808</v>
       </c>
       <c r="C51" t="n">
-        <v>22</v>
+        <v>625</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rating Stylevana products ♥️
-Use my code INF10RIRI On Stylevana for 15% order on €48
-10% entire order 🥰</t>
+          <t>I can’t wait any longer !! #weakheroclass1 #kdrama #fyp</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10.94890510948905</v>
+        <v>8.132684426229508</v>
       </c>
       <c r="I51" t="n">
-        <v>8.02919708029197</v>
+        <v>8.004610655737705</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>2.91970802919708</v>
+        <v>0.1280737704918033</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7299270072992701</v>
+        <v>0.7556352459016393</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
